--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#guide.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#guide.xlsx
@@ -42,31 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#0|将军，晚辈$name,乃智者派遣前来，说有一事交付于我。
-#1|你终于来了，我已经在此地等候多时了。智者果然没有看错人。
-#0|全凭智者提携晚辈，才有机会谋得此事。定当竭尽所能，以尽绵薄之力。
-#1|距离此地10里荒原之处，常有兽匪出没，滋扰边境，现派你去侦察敌情，以便大军及时过境。
-#0|请将军放心，我即刻出发，尽快查实情况。</t>
-  </si>
-  <si>
-    <t>#0|老板，你好，我需要对自己的装备进行修复更新。请问你能帮我吗？
-#1|少侠好眼力，我是全城最好的工匠，没有之一。你来找我算是来对地方了。
-#0|甚好甚好，那就麻烦你了。
-#1|不麻烦，你只要有钱就行了。谁也不会和钱过不去，对么？</t>
-  </si>
-  <si>
-    <t>#1|江湖路漫漫，耗神又废力，你需要补充一些体力了。
-#0|休息是为了走更远的路，翻越更高的山，我需要补充一些体力了。</t>
-  </si>
-  <si>
-    <t>#1|钱不是万能的，但没钱是万万不能的。
-#0|是时候让自己的口袋充实一些了。</t>
-  </si>
-  <si>
-    <t>#1|沟通能接近彼此之间的距离。如果没能拉近，肯定是你没有说普通话。
-#0|是时候让世界听到我的声音了。</t>
-  </si>
-  <si>
     <t>npcID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,16 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#0|智者您好，晚辈$name,前来拜会。
-#1|漫漫人生路，你我得以相遇也是一种缘分。我看你骨骼精奇，眉宇间正气凛然，将来定能成就一番事业。
-#0|智者过誉了，晚辈阅历尚浅，学识浅薄，空有满腔热血，还请前辈多多教导。
-#1|教导谈不上，但我现有一事可交付与你，若你能办妥，对你而言也是一种历练。你可有意为之？
-#0|能为智者办事，是晚辈的福分，定当竭尽所能，请您明示。
-#1|甚好，此事我已安排妥当，你去主城找凯伦将军，他会告诉你怎么做。
-#0|好的，晚辈即刻启程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
   </si>
   <si>
@@ -107,6 +72,24 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>#0|智者您好，晚辈$name,前来拜会。#1|漫漫人生路，你我得以相遇也是一种缘分。我看你骨骼精奇，眉宇间正气凛然，将来定能成就一番事业。#0|智者过誉了，晚辈阅历尚浅，学识浅薄，空有满腔热血，还请前辈多多教导。#1|教导谈不上，但我现有一事可交付与你，若你能办妥，对你而言也是一种历练。你可有意为之？#0|能为智者办事，是晚辈的福分，定当竭尽所能，请您明示。#1|甚好，此事我已安排妥当，你去主城找凯伦将军，他会告诉你怎么做。#0|好的，晚辈即刻启程。</t>
+  </si>
+  <si>
+    <t>#0|将军，晚辈$name,乃智者派遣前来，说有一事交付于我。#1|你终于来了，我已经在此地等候多时了。智者果然没有看错人。#0|全凭智者提携晚辈，才有机会谋得此事。定当竭尽所能，以尽绵薄之力。#1|距离此地10里荒原之处，常有兽匪出没，滋扰边境，现派你去侦察敌情，以便大军及时过境。#0|请将军放心，我即刻出发，尽快查实情况。</t>
+  </si>
+  <si>
+    <t>#0|老板，你好，我需要对自己的装备进行修复更新。请问你能帮我吗？#1|少侠好眼力，我是全城最好的工匠，没有之一。你来找我算是来对地方了。#0|甚好甚好，那就麻烦你了。#1|不麻烦，你只要有钱就行了。谁也不会和钱过不去，对么？</t>
+  </si>
+  <si>
+    <t>#1|江湖路漫漫，耗神又废力，你需要补充一些体力了。#0|休息是为了走更远的路，翻越更高的山，我需要补充一些体力了。</t>
+  </si>
+  <si>
+    <t>#1|钱不是万能的，但没钱是万万不能的。#0|是时候让自己的口袋充实一些了。</t>
+  </si>
+  <si>
+    <t>#1|沟通能接近彼此之间的距离。如果没能拉近，肯定是你没有说普通话。#0|是时候让世界听到我的声音了。</t>
   </si>
 </sst>
 </file>
@@ -550,7 +533,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,36 +548,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -603,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="98.25" customHeight="1">
@@ -617,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="72" customHeight="1">
@@ -637,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -657,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -677,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -697,7 +680,7 @@
         <v>-1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -717,7 +700,7 @@
         <v>-1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#guide.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#guide.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>#1|沟通能接近彼此之间的距离。如果没能拉近，肯定是你没有说普通话。#0|是时候让世界听到我的声音了。</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -217,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G8" tableType="xml" totalsRowShown="0" dataDxfId="6" connectionId="3">
-  <autoFilter ref="B2:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B3:G9" tableType="xml" totalsRowShown="0" dataDxfId="6" connectionId="3">
+  <autoFilter ref="B3:G9"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="ID" name="ID" dataDxfId="5">
       <xmlColumnPr mapId="3" xpath="/root/item/@ID" xmlDataType="string"/>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,144 +574,149 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="98.25" customHeight="1">
-      <c r="B3" s="1">
+    <row r="4" spans="1:7" ht="98.25" customHeight="1">
+      <c r="B4" s="1">
         <v>1001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1">
-      <c r="B4" s="1">
+    <row r="5" spans="1:7" ht="72" customHeight="1">
+      <c r="B5" s="1">
         <v>1002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>75</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57" customHeight="1">
-      <c r="B5" s="1">
+    <row r="6" spans="1:7" ht="57" customHeight="1">
+      <c r="B6" s="1">
         <v>1003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>85</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="38.25" customHeight="1">
-      <c r="B6" s="1">
+    <row r="7" spans="1:7" ht="38.25" customHeight="1">
+      <c r="B7" s="1">
         <v>1004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>95</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34.5" customHeight="1">
-      <c r="B7" s="1">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1">
+      <c r="B8" s="1">
         <v>1005</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>105</v>
-      </c>
-      <c r="G7" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1">
-      <c r="B8" s="1">
-        <v>1006</v>
       </c>
       <c r="C8" s="1">
         <v>-1</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>105</v>
+      </c>
+      <c r="G8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" customHeight="1">
+      <c r="B9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>115</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>130</v>
       </c>
     </row>
